--- a/data/trans_orig/P1407-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>6282</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2985</v>
+        <v>2084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13698</v>
+        <v>12886</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006445728242135232</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003062598114896503</v>
+        <v>0.002137815553392239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01405473530864403</v>
+        <v>0.01322111749630054</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -763,19 +763,19 @@
         <v>44796</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33091</v>
+        <v>32616</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60053</v>
+        <v>59125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03351444907631928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02475727573336818</v>
+        <v>0.02440207532401959</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04492891524514543</v>
+        <v>0.04423518284235953</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -784,19 +784,19 @@
         <v>51078</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38313</v>
+        <v>38040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66088</v>
+        <v>65931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0220997331348015</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01657659704686707</v>
+        <v>0.01645837865577702</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02859406238621497</v>
+        <v>0.02852620166181008</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>968361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>960945</v>
+        <v>961757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>971658</v>
+        <v>972559</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9935542717578648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9859452646913559</v>
+        <v>0.9867788825036994</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9969374018851035</v>
+        <v>0.9978621844466078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1203</v>
@@ -834,19 +834,19 @@
         <v>1291818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1276561</v>
+        <v>1277489</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1303523</v>
+        <v>1303998</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9664855509236807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9550710847548549</v>
+        <v>0.9557648171576403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9752427242666321</v>
+        <v>0.9755979246759804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2105</v>
@@ -855,19 +855,19 @@
         <v>2260179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2245169</v>
+        <v>2245326</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2272944</v>
+        <v>2273217</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9779002668651985</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9714059376137851</v>
+        <v>0.9714737983381899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.983423402953133</v>
+        <v>0.9835416213442231</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>3025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9975</v>
+        <v>8974</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001540237946816098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0005032613660848932</v>
+        <v>0.0005014518242055073</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005079213924040711</v>
+        <v>0.004569455912321076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -980,19 +980,19 @@
         <v>19806</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11837</v>
+        <v>11699</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32581</v>
+        <v>32095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01128792942454052</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006746062958302872</v>
+        <v>0.00666777916259247</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01856917235200524</v>
+        <v>0.01829185193081784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1001,19 +1001,19 @@
         <v>22831</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14797</v>
+        <v>14669</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37793</v>
+        <v>35553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006139671671374253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003979286576430959</v>
+        <v>0.003944893156917231</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01016334145331634</v>
+        <v>0.009560970535372425</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1960932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1953982</v>
+        <v>1954983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1962969</v>
+        <v>1962972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9984597620531839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9949207860759595</v>
+        <v>0.9954305440876789</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9994967386339152</v>
+        <v>0.9994985481757944</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1616</v>
@@ -1051,19 +1051,19 @@
         <v>1734786</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1722011</v>
+        <v>1722497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1742755</v>
+        <v>1742893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9887120705754595</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9814308276479947</v>
+        <v>0.9817081480691822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9932539370416972</v>
+        <v>0.9933322208374074</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3469</v>
@@ -1072,19 +1072,19 @@
         <v>3695718</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3680756</v>
+        <v>3682996</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3703752</v>
+        <v>3703880</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9938603283286257</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9898366585466836</v>
+        <v>0.9904390294646277</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.996020713423569</v>
+        <v>0.9960551068430828</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4878</v>
+        <v>5663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002048261613315209</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0101377859161631</v>
+        <v>0.01176827419827317</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1197,19 +1197,19 @@
         <v>7016</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2930</v>
+        <v>3019</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15009</v>
+        <v>15216</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0152970025532145</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006389589243201844</v>
+        <v>0.006582275986288756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03272543021692058</v>
+        <v>0.03317638242742417</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1218,19 +1218,19 @@
         <v>8001</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3858</v>
+        <v>3113</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16176</v>
+        <v>16019</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008513683496353737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004104696382320189</v>
+        <v>0.003312666452580019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01721144803152262</v>
+        <v>0.01704494195969344</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>480195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>476303</v>
+        <v>475518</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>481181</v>
@@ -1256,7 +1256,7 @@
         <v>0.9979517383866848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.989862214083837</v>
+        <v>0.988231725801727</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>451615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>443622</v>
+        <v>443415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455701</v>
+        <v>455612</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9847029974467855</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9672745697830794</v>
+        <v>0.9668236175725756</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9936104107567981</v>
+        <v>0.9934177240137113</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>843</v>
@@ -1289,19 +1289,19 @@
         <v>931812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>923637</v>
+        <v>923794</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>935955</v>
+        <v>936700</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9914863165036463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9827885519684773</v>
+        <v>0.9829550580403066</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9958953036176798</v>
+        <v>0.99668733354742</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>10293</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5136</v>
+        <v>5102</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19315</v>
+        <v>18622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003009791738663342</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001501974557583584</v>
+        <v>0.001491859302223396</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005647918277741146</v>
+        <v>0.005445239407647842</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1414,19 +1414,19 @@
         <v>71617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56387</v>
+        <v>56944</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90365</v>
+        <v>90665</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02017480476961918</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01588431983282217</v>
+        <v>0.0160412189814288</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02545610765401132</v>
+        <v>0.02554047882930503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -1435,19 +1435,19 @@
         <v>81910</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62711</v>
+        <v>64752</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102410</v>
+        <v>100927</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01175245019660213</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008997823842389762</v>
+        <v>0.009290650412504079</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01469370449840593</v>
+        <v>0.01448092987326313</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3409489</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3400467</v>
+        <v>3401160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3414646</v>
+        <v>3414680</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9969902082613367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9943520817222589</v>
+        <v>0.994554760592352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9984980254424164</v>
+        <v>0.9985081406977766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3225</v>
@@ -1485,19 +1485,19 @@
         <v>3478220</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3459472</v>
+        <v>3459172</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3493450</v>
+        <v>3492893</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9798251952303808</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9745438923459887</v>
+        <v>0.974459521170695</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9841156801671779</v>
+        <v>0.9839587810185713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6417</v>
@@ -1506,19 +1506,19 @@
         <v>6887709</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6867209</v>
+        <v>6868692</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6906908</v>
+        <v>6904867</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9882475498033979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9853062955015941</v>
+        <v>0.9855190701267369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9910021761576102</v>
+        <v>0.9907093495874962</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>9559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5129</v>
+        <v>4579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17713</v>
+        <v>18125</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01267246836662786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006799727291194299</v>
+        <v>0.006070262221252399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02348058926113403</v>
+        <v>0.02402783330640588</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -1870,19 +1870,19 @@
         <v>37466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26893</v>
+        <v>26190</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52673</v>
+        <v>51571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03766727274554044</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0270373426923849</v>
+        <v>0.02633063079621654</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05295533909035571</v>
+        <v>0.05184761226561806</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -1891,19 +1891,19 @@
         <v>47026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33591</v>
+        <v>34007</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62299</v>
+        <v>64184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02688701247330285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01920549638202933</v>
+        <v>0.01944347934220192</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03561982272559499</v>
+        <v>0.03669736130600277</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>744788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>736634</v>
+        <v>736222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>749218</v>
+        <v>749768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9873275316333722</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9765194107388661</v>
+        <v>0.9759721666935941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9932002727088057</v>
+        <v>0.9939297377787476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>860</v>
@@ -1941,19 +1941,19 @@
         <v>957194</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>941987</v>
+        <v>943089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>967767</v>
+        <v>968470</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9623327272544595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9470446609096445</v>
+        <v>0.948152387734382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9729626573076154</v>
+        <v>0.9736693692037836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1612</v>
@@ -1962,19 +1962,19 @@
         <v>1701981</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1686708</v>
+        <v>1684823</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1715416</v>
+        <v>1715000</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9731129875266972</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9643801772744049</v>
+        <v>0.9633026386939971</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9807945036179705</v>
+        <v>0.9805565206577979</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>4875</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1847</v>
+        <v>1791</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10724</v>
+        <v>10671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002347915975165738</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0008895619933914681</v>
+        <v>0.00086273878842459</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005164973432183815</v>
+        <v>0.005139401323589389</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2087,19 +2087,19 @@
         <v>12826</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6838</v>
+        <v>6825</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22220</v>
+        <v>21737</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006450561909793639</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003439202707389666</v>
+        <v>0.003432370531093895</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0111753038055216</v>
+        <v>0.01093249417221133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -2108,19 +2108,19 @@
         <v>17701</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10195</v>
+        <v>10877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28519</v>
+        <v>26945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004354785170905513</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002508288755976793</v>
+        <v>0.002675968681244865</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007016277119800857</v>
+        <v>0.006629160840398872</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2071510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2065661</v>
+        <v>2065714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2074538</v>
+        <v>2074594</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9976520840248343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9948350265678164</v>
+        <v>0.9948605986764107</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9991104380066086</v>
+        <v>0.9991372612115754</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1896</v>
@@ -2158,19 +2158,19 @@
         <v>1975474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1966080</v>
+        <v>1966563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1981462</v>
+        <v>1981475</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9935494380902063</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9888246961944784</v>
+        <v>0.9890675058277887</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9965607972926104</v>
+        <v>0.9965676294689061</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3843</v>
@@ -2179,19 +2179,19 @@
         <v>4046984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4036166</v>
+        <v>4037740</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4054490</v>
+        <v>4053808</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9956452148290945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9929837228801989</v>
+        <v>0.9933708391596011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974917112440229</v>
+        <v>0.997324031318755</v>
       </c>
     </row>
     <row r="9">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7674</v>
+        <v>7615</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003889941930149356</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01403296571208303</v>
+        <v>0.01392489528165458</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2304,19 +2304,19 @@
         <v>8839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3953</v>
+        <v>3851</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18419</v>
+        <v>18841</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01609629226946096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00719769777529492</v>
+        <v>0.007012904129810135</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03354133498485404</v>
+        <v>0.03430940764575197</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2325,19 +2325,19 @@
         <v>10966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5155</v>
+        <v>5037</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20420</v>
+        <v>20897</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01000566919592343</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004703593089221531</v>
+        <v>0.004595838328454616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01863132406833725</v>
+        <v>0.0190659786210793</v>
       </c>
     </row>
     <row r="11">
@@ -2354,7 +2354,7 @@
         <v>544759</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539212</v>
+        <v>539271</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -2363,7 +2363,7 @@
         <v>0.9961100580698506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9859670342879177</v>
+        <v>0.9860751047183455</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2375,19 +2375,19 @@
         <v>540301</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>530721</v>
+        <v>530299</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>545187</v>
+        <v>545289</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.983903707730539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9664586650151457</v>
+        <v>0.9656905923542485</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.992802302224705</v>
+        <v>0.9929870958701899</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1018</v>
@@ -2396,19 +2396,19 @@
         <v>1085061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1075607</v>
+        <v>1075130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1090872</v>
+        <v>1090990</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9899943308040766</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9813686759316629</v>
+        <v>0.9809340213789207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9952964069107785</v>
+        <v>0.9954041616715453</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>16562</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9969</v>
+        <v>9558</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25811</v>
+        <v>26797</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00490344650518845</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00295160223091242</v>
+        <v>0.00282992250222987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007641676152444026</v>
+        <v>0.007933678497715195</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -2521,19 +2521,19 @@
         <v>59131</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44233</v>
+        <v>43772</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78494</v>
+        <v>77550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01674100489898979</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01252305302390029</v>
+        <v>0.01239254909471731</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02222314287456742</v>
+        <v>0.0219557890518833</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -2542,19 +2542,19 @@
         <v>75693</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58881</v>
+        <v>59010</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96617</v>
+        <v>95295</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01095455361994154</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008521521978357274</v>
+        <v>0.008540090201227424</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01398276025909132</v>
+        <v>0.01379143911670676</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3361056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3351807</v>
+        <v>3350821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3367649</v>
+        <v>3368060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9950965534948115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9923583238475561</v>
+        <v>0.9920663215022849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9970483977690876</v>
+        <v>0.9971700774977702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3275</v>
@@ -2592,19 +2592,19 @@
         <v>3472969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3453606</v>
+        <v>3454550</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3487867</v>
+        <v>3488328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9832589951010102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9777768571254326</v>
+        <v>0.9780442109481167</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9874769469760997</v>
+        <v>0.9876074509052829</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6473</v>
@@ -2613,19 +2613,19 @@
         <v>6834025</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6813101</v>
+        <v>6814423</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6850837</v>
+        <v>6850708</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9890454463800584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9860172397409088</v>
+        <v>0.9862085608832932</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9914784780216428</v>
+        <v>0.9914599097987726</v>
       </c>
     </row>
     <row r="15">
